--- a/artfynd/A 56472-2022.xlsx
+++ b/artfynd/A 56472-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>106527630</v>
+        <v>106527621</v>
       </c>
       <c r="B2" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Vansåshön, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>421807.3410346356</v>
+        <v>422551.809521322</v>
       </c>
       <c r="R2" t="n">
-        <v>7019388.525846463</v>
+        <v>7019429.901349179</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -766,6 +770,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>106527621</v>
+        <v>106527625</v>
       </c>
       <c r="B3" t="n">
         <v>56395</v>
@@ -828,7 +837,11 @@
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -836,10 +849,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>422551.809521322</v>
+        <v>422594.7694478295</v>
       </c>
       <c r="R3" t="n">
-        <v>7019429.901349179</v>
+        <v>7019417.617479109</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -913,7 +926,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>106527625</v>
+        <v>106527619</v>
       </c>
       <c r="B4" t="n">
         <v>56395</v>
@@ -949,11 +962,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -961,10 +970,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>422594.7694478295</v>
+        <v>422527.6223480041</v>
       </c>
       <c r="R4" t="n">
-        <v>7019417.617479109</v>
+        <v>7019435.883743418</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1038,7 +1047,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>106527619</v>
+        <v>106527614</v>
       </c>
       <c r="B5" t="n">
         <v>56395</v>
@@ -1082,10 +1091,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>422527.6223480041</v>
+        <v>422426.2143204252</v>
       </c>
       <c r="R5" t="n">
-        <v>7019435.883743418</v>
+        <v>7019621.460759236</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1159,10 +1168,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>106527614</v>
+        <v>106527638</v>
       </c>
       <c r="B6" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1175,38 +1184,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Vansåshön, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>422426.2143204252</v>
+        <v>422566.9857729367</v>
       </c>
       <c r="R6" t="n">
-        <v>7019621.460759236</v>
+        <v>7019405.237422666</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1249,11 +1254,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1280,7 +1280,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>106527638</v>
+        <v>106527636</v>
       </c>
       <c r="B7" t="n">
         <v>77506</v>
@@ -1320,10 +1320,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>422566.9857729367</v>
+        <v>422495.1119518331</v>
       </c>
       <c r="R7" t="n">
-        <v>7019405.237422666</v>
+        <v>7019470.414734876</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>106527636</v>
+        <v>106527623</v>
       </c>
       <c r="B8" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1408,34 +1408,38 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Vansåshön, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>422495.1119518331</v>
+        <v>422587.6292912964</v>
       </c>
       <c r="R8" t="n">
-        <v>7019470.414734876</v>
+        <v>7019420.489218531</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1478,6 +1482,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1504,10 +1513,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>106527623</v>
+        <v>106527634</v>
       </c>
       <c r="B9" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1520,38 +1529,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Vansåshön, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>422587.6292912964</v>
+        <v>422420.8103881205</v>
       </c>
       <c r="R9" t="n">
-        <v>7019420.489218531</v>
+        <v>7019509.553637378</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1594,11 +1599,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1625,10 +1625,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>106527617</v>
+        <v>106527630</v>
       </c>
       <c r="B10" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1641,38 +1641,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Vansåshön, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>421790.6172308734</v>
+        <v>421807.3410346356</v>
       </c>
       <c r="R10" t="n">
-        <v>7019460.47857395</v>
+        <v>7019388.525846463</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1715,11 +1711,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1746,10 +1737,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>106527632</v>
+        <v>106527617</v>
       </c>
       <c r="B11" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1762,34 +1753,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Vansåshön, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>421997.6268703607</v>
+        <v>421790.6172308734</v>
       </c>
       <c r="R11" t="n">
-        <v>7019616.983763674</v>
+        <v>7019460.47857395</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1832,6 +1827,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1858,10 +1858,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>106527615</v>
+        <v>106527632</v>
       </c>
       <c r="B12" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1874,38 +1874,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Vansåshön, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>421879.6144842675</v>
+        <v>421997.6268703607</v>
       </c>
       <c r="R12" t="n">
-        <v>7019284.621970991</v>
+        <v>7019616.983763674</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1948,11 +1944,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1979,10 +1970,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>106527634</v>
+        <v>106527615</v>
       </c>
       <c r="B13" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1995,34 +1986,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Vansåshön, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>422420.8103881205</v>
+        <v>421879.6144842675</v>
       </c>
       <c r="R13" t="n">
-        <v>7019509.553637378</v>
+        <v>7019284.621970991</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2065,6 +2060,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 56472-2022.xlsx
+++ b/artfynd/A 56472-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>106527621</v>
+        <v>106527630</v>
       </c>
       <c r="B2" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,38 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Vansåshön, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>422551.809521322</v>
+        <v>421807.3410346356</v>
       </c>
       <c r="R2" t="n">
-        <v>7019429.901349179</v>
+        <v>7019388.525846463</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -770,11 +766,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>106527625</v>
+        <v>106527621</v>
       </c>
       <c r="B3" t="n">
         <v>56395</v>
@@ -837,11 +828,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -849,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>422594.7694478295</v>
+        <v>422551.809521322</v>
       </c>
       <c r="R3" t="n">
-        <v>7019417.617479109</v>
+        <v>7019429.901349179</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -926,7 +913,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>106527619</v>
+        <v>106527625</v>
       </c>
       <c r="B4" t="n">
         <v>56395</v>
@@ -962,7 +949,11 @@
       <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -970,10 +961,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>422527.6223480041</v>
+        <v>422594.7694478295</v>
       </c>
       <c r="R4" t="n">
-        <v>7019435.883743418</v>
+        <v>7019417.617479109</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1047,7 +1038,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>106527614</v>
+        <v>106527619</v>
       </c>
       <c r="B5" t="n">
         <v>56395</v>
@@ -1091,10 +1082,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>422426.2143204252</v>
+        <v>422527.6223480041</v>
       </c>
       <c r="R5" t="n">
-        <v>7019621.460759236</v>
+        <v>7019435.883743418</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1168,10 +1159,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>106527638</v>
+        <v>106527614</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1184,34 +1175,38 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Vansåshön, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>422566.9857729367</v>
+        <v>422426.2143204252</v>
       </c>
       <c r="R6" t="n">
-        <v>7019405.237422666</v>
+        <v>7019621.460759236</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1254,6 +1249,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1280,7 +1280,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>106527636</v>
+        <v>106527638</v>
       </c>
       <c r="B7" t="n">
         <v>77506</v>
@@ -1320,10 +1320,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>422495.1119518331</v>
+        <v>422566.9857729367</v>
       </c>
       <c r="R7" t="n">
-        <v>7019470.414734876</v>
+        <v>7019405.237422666</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>106527623</v>
+        <v>106527636</v>
       </c>
       <c r="B8" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1408,38 +1408,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Vansåshön, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>422587.6292912964</v>
+        <v>422495.1119518331</v>
       </c>
       <c r="R8" t="n">
-        <v>7019420.489218531</v>
+        <v>7019470.414734876</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1482,11 +1478,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1513,10 +1504,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>106527634</v>
+        <v>106527623</v>
       </c>
       <c r="B9" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1529,34 +1520,38 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Vansåshön, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>422420.8103881205</v>
+        <v>422587.6292912964</v>
       </c>
       <c r="R9" t="n">
-        <v>7019509.553637378</v>
+        <v>7019420.489218531</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1599,6 +1594,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1625,10 +1625,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>106527630</v>
+        <v>106527617</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1641,34 +1641,38 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Vansåshön, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>421807.3410346356</v>
+        <v>421790.6172308734</v>
       </c>
       <c r="R10" t="n">
-        <v>7019388.525846463</v>
+        <v>7019460.47857395</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1711,6 +1715,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1737,10 +1746,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>106527617</v>
+        <v>106527632</v>
       </c>
       <c r="B11" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1753,38 +1762,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Vansåshön, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>421790.6172308734</v>
+        <v>421997.6268703607</v>
       </c>
       <c r="R11" t="n">
-        <v>7019460.47857395</v>
+        <v>7019616.983763674</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1827,11 +1832,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1858,10 +1858,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>106527632</v>
+        <v>106527615</v>
       </c>
       <c r="B12" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1874,34 +1874,38 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Vansåshön, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>421997.6268703607</v>
+        <v>421879.6144842675</v>
       </c>
       <c r="R12" t="n">
-        <v>7019616.983763674</v>
+        <v>7019284.621970991</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1944,6 +1948,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1970,10 +1979,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>106527615</v>
+        <v>106527634</v>
       </c>
       <c r="B13" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1986,38 +1995,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Vansåshön, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>421879.6144842675</v>
+        <v>422420.8103881205</v>
       </c>
       <c r="R13" t="n">
-        <v>7019284.621970991</v>
+        <v>7019509.553637378</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2060,11 +2065,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
